--- a/pont sens/article analyse donnees reelles/ResultsA.xlsx
+++ b/pont sens/article analyse donnees reelles/ResultsA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF45E3D-5338-495D-BD1C-39FBC958D0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32552736-4E10-4EE0-937D-C68D85DFF760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TGV</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>ft2</t>
+  </si>
+  <si>
+    <t>écart type</t>
+  </si>
+  <si>
+    <t>vitesse</t>
   </si>
 </sst>
 </file>
@@ -355,18 +361,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,8 +389,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -399,8 +409,12 @@
       <c r="E2">
         <v>8.6318999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f xml:space="preserve"> 18.7*(D2+E2/2)/2 * 3.6</f>
+        <v>290.45045699999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -416,8 +430,12 @@
       <c r="E3">
         <v>8.1085999999999991</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="0" xml:space="preserve"> 18.7*(D3+E3/2)/2 * 3.6</f>
+        <v>272.68302599999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -433,8 +451,12 @@
       <c r="E4">
         <v>7.8307000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>263.232981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -450,8 +472,12 @@
       <c r="E5">
         <v>8.6173999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>290.17612800000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -467,8 +493,12 @@
       <c r="E6">
         <v>8.7348999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>294.011685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -484,8 +514,12 @@
       <c r="E7">
         <v>8.5687999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>288.23731199999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -501,16 +535,24 @@
       <c r="E8">
         <v>8.6354000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>290.58004799999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="E9">
         <v>8.8454999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f xml:space="preserve"> 18.7*(D9+E9/2)/1 * 3.6</f>
+        <v>297.73953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -526,26 +568,51 @@
       <c r="E10">
         <v>8.7581000000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>294.63776100000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f xml:space="preserve"> AVERAGE(B2:B10)</f>
         <v>5.8409239245000011</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:K11" si="0" xml:space="preserve"> AVERAGE(C2:C10)</f>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="1" xml:space="preserve"> AVERAGE(C2:C10)</f>
         <v>3.2724346215124998</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f t="shared" si="1"/>
         <v>4.2390499999999998</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="E12">
+        <f t="shared" si="1"/>
         <v>8.5256999999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f xml:space="preserve"> STDEVP(B2:B10)</f>
+        <v>6.4483977884351507E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="2" xml:space="preserve"> STDEVP(C2:C10)</f>
+        <v>0.41641317876411099</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.15868942151258858</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.31457606040157887</v>
       </c>
     </row>
   </sheetData>
